--- a/results/finslides/iterative_significance_tests_rephrase_level_2.xlsx
+++ b/results/finslides/iterative_significance_tests_rephrase_level_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.100994744656528e-118</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,17 +525,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2025361366114725</v>
+        <v>3.268624985336525e-72</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04630699318029843</v>
+        <v>0.8155106308025102</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>large</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.100994744656528e-118</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,17 +577,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.783962959738073e-88</v>
+        <v>0.2041118382129408</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.014963704504418</v>
+        <v>0.04723768934276173</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -602,7 +602,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>nDCG@5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.100994744656528e-118</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>TEXT-MULTI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -629,17 +629,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5563514249729706</v>
+        <v>3.783962959738073e-88</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02847775348480371</v>
+        <v>1.014963704504418</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>large</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.100994744656528e-118</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.133593072922317e-79</v>
+        <v>7.450904048628841e-66</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9368287152014819</v>
+        <v>0.7764954597247852</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -706,7 +706,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.342790905082449e-141</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.01682740948275684</v>
+        <v>0.5370512170929997</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08819213808721992</v>
+        <v>0.02948203520729049</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.342790905082449e-141</v>
+        <v>1.91526596264094e-170</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.243893981835176e-95</v>
+        <v>7.133593072922317e-79</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.088575962654877</v>
+        <v>0.9368287152014819</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.342790905082449e-141</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -837,17 +837,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.01412058969925211</v>
+        <v>7.548910074380547e-67</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08963782798598149</v>
+        <v>0.7914469033101562</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -862,7 +862,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.342790905082449e-141</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -889,17 +889,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.577421129845379e-95</v>
+        <v>0.01682740948275684</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.087248069431971</v>
+        <v>0.08819213808721992</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -914,20 +914,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nDCG@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.153285842797921e-78</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.153285842797921e-78</v>
+        <v>1.243893981835176e-95</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9446325072038386</v>
+        <v>1.088575962654877</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -966,25 +966,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.483748996787887e-72</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -993,21 +993,21 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.483748996787887e-72</v>
+        <v>1.946375915456458e-66</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8905127948215863</v>
+        <v>0.7909614524054883</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1018,48 +1018,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.239826402424021e-83</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEXT-MULTI</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Wilcoxon Signed-Rank Test</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.239826402424021e-83</v>
+        <v>0.01412058969925211</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9773932163746201</v>
+        <v>0.08963782798598149</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1075,45 +1075,669 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.368259176604499e-82</v>
+        <v>1.258763740403281e-183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.577421129845379e-95</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.087248069431971</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6.080212673695656e-112</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.861653176639391e-61</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7503237591537185</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6.080212673695656e-112</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>TEXT-MULTI</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Wilcoxon Signed-Rank Test</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.368259176604499e-82</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.263764831887117e-78</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9436229695206118</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6.080212673695656e-112</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.500687106419686e-57</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7327793954526919</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6.080212673695656e-112</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.26352422799144e-72</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8892330088398794</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4.071613636856752e-118</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.846893107796237e-56</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6923249032575699</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4.071613636856752e-118</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.238444796312856e-83</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9773932163746201</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.071613636856752e-118</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.712370823973802e-55</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6907026281614048</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4.071613636856752e-118</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>7.079461848135925e-83</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.9749530960341005</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>large</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.213912317832612e-09</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>6.213912317832612e-09</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.18357537945169</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5.916298771504166e-06</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.916298771504166e-06</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1521378116846364</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.245510685134425e-15</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.245510685134425e-15</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2433266046546385</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.301607540497842e-15</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.301607540497842e-15</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2424085293989084</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>rephrase_level_2</t>
         </is>
